--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Thbs2-Itga4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Thbs2-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.45962432165737</v>
+        <v>6.507922666666667</v>
       </c>
       <c r="H2">
-        <v>3.45962432165737</v>
+        <v>19.523768</v>
       </c>
       <c r="I2">
-        <v>0.01260817656811338</v>
+        <v>0.02333320049201848</v>
       </c>
       <c r="J2">
-        <v>0.01260817656811338</v>
+        <v>0.02333320049201848</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.401300088170972</v>
+        <v>0.403827</v>
       </c>
       <c r="N2">
-        <v>0.401300088170972</v>
+        <v>1.211481</v>
       </c>
       <c r="O2">
-        <v>0.005341692140345045</v>
+        <v>0.005172149156755268</v>
       </c>
       <c r="P2">
-        <v>0.005341692140345045</v>
+        <v>0.005172149156755267</v>
       </c>
       <c r="Q2">
-        <v>1.388347545319542</v>
+        <v>2.628074886712</v>
       </c>
       <c r="R2">
-        <v>1.388347545319542</v>
+        <v>23.652673980408</v>
       </c>
       <c r="S2">
-        <v>6.734899767797382E-05</v>
+        <v>0.000120682793249195</v>
       </c>
       <c r="T2">
-        <v>6.734899767797382E-05</v>
+        <v>0.000120682793249195</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.45962432165737</v>
+        <v>6.507922666666667</v>
       </c>
       <c r="H3">
-        <v>3.45962432165737</v>
+        <v>19.523768</v>
       </c>
       <c r="I3">
-        <v>0.01260817656811338</v>
+        <v>0.02333320049201848</v>
       </c>
       <c r="J3">
-        <v>0.01260817656811338</v>
+        <v>0.02333320049201848</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>23.4340792702359</v>
+        <v>0.137516</v>
       </c>
       <c r="N3">
-        <v>23.4340792702359</v>
+        <v>0.412548</v>
       </c>
       <c r="O3">
-        <v>0.3119302505627921</v>
+        <v>0.001761282092183924</v>
       </c>
       <c r="P3">
-        <v>0.3119302505627921</v>
+        <v>0.001761282092183924</v>
       </c>
       <c r="Q3">
-        <v>81.07311059895491</v>
+        <v>0.8949434934293333</v>
       </c>
       <c r="R3">
-        <v>81.07311059895491</v>
+        <v>8.054491440864</v>
       </c>
       <c r="S3">
-        <v>0.003932871676031532</v>
+        <v>4.109634817992927E-05</v>
       </c>
       <c r="T3">
-        <v>0.003932871676031532</v>
+        <v>4.109634817992927E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.45962432165737</v>
+        <v>6.507922666666667</v>
       </c>
       <c r="H4">
-        <v>3.45962432165737</v>
+        <v>19.523768</v>
       </c>
       <c r="I4">
-        <v>0.01260817656811338</v>
+        <v>0.02333320049201848</v>
       </c>
       <c r="J4">
-        <v>0.01260817656811338</v>
+        <v>0.02333320049201848</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>50.8685390322163</v>
+        <v>23.43656066666667</v>
       </c>
       <c r="N4">
-        <v>50.8685390322163</v>
+        <v>70.309682</v>
       </c>
       <c r="O4">
-        <v>0.6771094329375232</v>
+        <v>0.3001715771588915</v>
       </c>
       <c r="P4">
-        <v>0.6771094329375232</v>
+        <v>0.3001715771588914</v>
       </c>
       <c r="Q4">
-        <v>175.9860348430327</v>
+        <v>152.5233243913084</v>
       </c>
       <c r="R4">
-        <v>175.9860348430327</v>
+        <v>1372.709919521776</v>
       </c>
       <c r="S4">
-        <v>0.00853711528641142</v>
+        <v>0.007003963591853811</v>
       </c>
       <c r="T4">
-        <v>0.00853711528641142</v>
+        <v>0.007003963591853808</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.45962432165737</v>
+        <v>6.507922666666667</v>
       </c>
       <c r="H5">
-        <v>3.45962432165737</v>
+        <v>19.523768</v>
       </c>
       <c r="I5">
-        <v>0.01260817656811338</v>
+        <v>0.02333320049201848</v>
       </c>
       <c r="J5">
-        <v>0.01260817656811338</v>
+        <v>0.02333320049201848</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.422104904506321</v>
+        <v>53.66901333333334</v>
       </c>
       <c r="N5">
-        <v>0.422104904506321</v>
+        <v>161.00704</v>
       </c>
       <c r="O5">
-        <v>0.005618624359339496</v>
+        <v>0.6873838105324489</v>
       </c>
       <c r="P5">
-        <v>0.005618624359339496</v>
+        <v>0.6873838105324488</v>
       </c>
       <c r="Q5">
-        <v>1.46032439392093</v>
+        <v>349.2737883696356</v>
       </c>
       <c r="R5">
-        <v>1.46032439392093</v>
+        <v>3143.46409532672</v>
       </c>
       <c r="S5">
-        <v>7.08406079924553E-05</v>
+        <v>0.01603886426612128</v>
       </c>
       <c r="T5">
-        <v>7.08406079924553E-05</v>
+        <v>0.01603886426612127</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>268.14510524654</v>
+        <v>6.507922666666667</v>
       </c>
       <c r="H6">
-        <v>268.14510524654</v>
+        <v>19.523768</v>
       </c>
       <c r="I6">
-        <v>0.9772219520078136</v>
+        <v>0.02333320049201848</v>
       </c>
       <c r="J6">
-        <v>0.9772219520078136</v>
+        <v>0.02333320049201848</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.401300088170972</v>
+        <v>0.4302976666666667</v>
       </c>
       <c r="N6">
-        <v>0.401300088170972</v>
+        <v>1.290893</v>
       </c>
       <c r="O6">
-        <v>0.005341692140345045</v>
+        <v>0.005511181059720522</v>
       </c>
       <c r="P6">
-        <v>0.005341692140345045</v>
+        <v>0.005511181059720521</v>
       </c>
       <c r="Q6">
-        <v>107.6066543780511</v>
+        <v>2.800343938313778</v>
       </c>
       <c r="R6">
-        <v>107.6066543780511</v>
+        <v>25.203095444824</v>
       </c>
       <c r="S6">
-        <v>0.00522001882041278</v>
+        <v>0.0001285934926142738</v>
       </c>
       <c r="T6">
-        <v>0.00522001882041278</v>
+        <v>0.0001285934926142738</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>268.14510524654</v>
+        <v>269.5472716666666</v>
       </c>
       <c r="H7">
-        <v>268.14510524654</v>
+        <v>808.641815</v>
       </c>
       <c r="I7">
-        <v>0.9772219520078136</v>
+        <v>0.9664221371420065</v>
       </c>
       <c r="J7">
-        <v>0.9772219520078136</v>
+        <v>0.9664221371420064</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.4340792702359</v>
+        <v>0.403827</v>
       </c>
       <c r="N7">
-        <v>23.4340792702359</v>
+        <v>1.211481</v>
       </c>
       <c r="O7">
-        <v>0.3119302505627921</v>
+        <v>0.005172149156755268</v>
       </c>
       <c r="P7">
-        <v>0.3119302505627921</v>
+        <v>0.005172149156755267</v>
       </c>
       <c r="Q7">
-        <v>6283.733652273168</v>
+        <v>108.850466075335</v>
       </c>
       <c r="R7">
-        <v>6283.733652273168</v>
+        <v>979.654194678015</v>
       </c>
       <c r="S7">
-        <v>0.3048250883452581</v>
+        <v>0.004998479441688653</v>
       </c>
       <c r="T7">
-        <v>0.3048250883452581</v>
+        <v>0.004998479441688651</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>268.14510524654</v>
+        <v>269.5472716666666</v>
       </c>
       <c r="H8">
-        <v>268.14510524654</v>
+        <v>808.641815</v>
       </c>
       <c r="I8">
-        <v>0.9772219520078136</v>
+        <v>0.9664221371420065</v>
       </c>
       <c r="J8">
-        <v>0.9772219520078136</v>
+        <v>0.9664221371420064</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>50.8685390322163</v>
+        <v>0.137516</v>
       </c>
       <c r="N8">
-        <v>50.8685390322163</v>
+        <v>0.412548</v>
       </c>
       <c r="O8">
-        <v>0.6771094329375232</v>
+        <v>0.001761282092183924</v>
       </c>
       <c r="P8">
-        <v>0.6771094329375232</v>
+        <v>0.001761282092183924</v>
       </c>
       <c r="Q8">
-        <v>13640.14975253137</v>
+        <v>37.06706261051333</v>
       </c>
       <c r="R8">
-        <v>13640.14975253137</v>
+        <v>333.60356349462</v>
       </c>
       <c r="S8">
-        <v>0.6616862017781102</v>
+        <v>0.001702142003638332</v>
       </c>
       <c r="T8">
-        <v>0.6616862017781102</v>
+        <v>0.001702142003638332</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>268.14510524654</v>
+        <v>269.5472716666666</v>
       </c>
       <c r="H9">
-        <v>268.14510524654</v>
+        <v>808.641815</v>
       </c>
       <c r="I9">
-        <v>0.9772219520078136</v>
+        <v>0.9664221371420065</v>
       </c>
       <c r="J9">
-        <v>0.9772219520078136</v>
+        <v>0.9664221371420064</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.422104904506321</v>
+        <v>23.43656066666667</v>
       </c>
       <c r="N9">
-        <v>0.422104904506321</v>
+        <v>70.309682</v>
       </c>
       <c r="O9">
-        <v>0.005618624359339496</v>
+        <v>0.3001715771588915</v>
       </c>
       <c r="P9">
-        <v>0.005618624359339496</v>
+        <v>0.3001715771588914</v>
       </c>
       <c r="Q9">
-        <v>113.1853640439282</v>
+        <v>6317.260984950313</v>
       </c>
       <c r="R9">
-        <v>113.1853640439282</v>
+        <v>56855.34886455282</v>
       </c>
       <c r="S9">
-        <v>0.005490643064032393</v>
+        <v>0.2900924571071826</v>
       </c>
       <c r="T9">
-        <v>0.005490643064032393</v>
+        <v>0.2900924571071825</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.79056486374348</v>
+        <v>269.5472716666666</v>
       </c>
       <c r="H10">
-        <v>2.79056486374348</v>
+        <v>808.641815</v>
       </c>
       <c r="I10">
-        <v>0.01016987142407295</v>
+        <v>0.9664221371420065</v>
       </c>
       <c r="J10">
-        <v>0.01016987142407295</v>
+        <v>0.9664221371420064</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.401300088170972</v>
+        <v>53.66901333333334</v>
       </c>
       <c r="N10">
-        <v>0.401300088170972</v>
+        <v>161.00704</v>
       </c>
       <c r="O10">
-        <v>0.005341692140345045</v>
+        <v>0.6873838105324489</v>
       </c>
       <c r="P10">
-        <v>0.005341692140345045</v>
+        <v>0.6873838105324488</v>
       </c>
       <c r="Q10">
-        <v>1.119853925867075</v>
+        <v>14466.33611704196</v>
       </c>
       <c r="R10">
-        <v>1.119853925867075</v>
+        <v>130197.0250533776</v>
       </c>
       <c r="S10">
-        <v>5.432432225429016E-05</v>
+        <v>0.6643029312115853</v>
       </c>
       <c r="T10">
-        <v>5.432432225429016E-05</v>
+        <v>0.6643029312115852</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.79056486374348</v>
+        <v>269.5472716666666</v>
       </c>
       <c r="H11">
-        <v>2.79056486374348</v>
+        <v>808.641815</v>
       </c>
       <c r="I11">
-        <v>0.01016987142407295</v>
+        <v>0.9664221371420065</v>
       </c>
       <c r="J11">
-        <v>0.01016987142407295</v>
+        <v>0.9664221371420064</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.4340792702359</v>
+        <v>0.4302976666666667</v>
       </c>
       <c r="N11">
-        <v>23.4340792702359</v>
+        <v>1.290893</v>
       </c>
       <c r="O11">
-        <v>0.3119302505627921</v>
+        <v>0.005511181059720522</v>
       </c>
       <c r="P11">
-        <v>0.3119302505627921</v>
+        <v>0.005511181059720521</v>
       </c>
       <c r="Q11">
-        <v>65.39431822569976</v>
+        <v>115.9855620545328</v>
       </c>
       <c r="R11">
-        <v>65.39431822569976</v>
+        <v>1043.870058490795</v>
       </c>
       <c r="S11">
-        <v>0.003172290541502456</v>
+        <v>0.005326127377911656</v>
       </c>
       <c r="T11">
-        <v>0.003172290541502456</v>
+        <v>0.005326127377911654</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>2.79056486374348</v>
+        <v>0.035174</v>
       </c>
       <c r="H12">
-        <v>2.79056486374348</v>
+        <v>0.105522</v>
       </c>
       <c r="I12">
-        <v>0.01016987142407295</v>
+        <v>0.0001261112087748008</v>
       </c>
       <c r="J12">
-        <v>0.01016987142407295</v>
+        <v>0.0001261112087748008</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>50.8685390322163</v>
+        <v>0.403827</v>
       </c>
       <c r="N12">
-        <v>50.8685390322163</v>
+        <v>1.211481</v>
       </c>
       <c r="O12">
-        <v>0.6771094329375232</v>
+        <v>0.005172149156755268</v>
       </c>
       <c r="P12">
-        <v>0.6771094329375232</v>
+        <v>0.005172149156755267</v>
       </c>
       <c r="Q12">
-        <v>141.9519576932666</v>
+        <v>0.014204210898</v>
       </c>
       <c r="R12">
-        <v>141.9519576932666</v>
+        <v>0.127837898082</v>
       </c>
       <c r="S12">
-        <v>0.006886115873001559</v>
+        <v>6.522659821219734E-07</v>
       </c>
       <c r="T12">
-        <v>0.006886115873001559</v>
+        <v>6.522659821219732E-07</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,557 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.035174</v>
+      </c>
+      <c r="H13">
+        <v>0.105522</v>
+      </c>
+      <c r="I13">
+        <v>0.0001261112087748008</v>
+      </c>
+      <c r="J13">
+        <v>0.0001261112087748008</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.137516</v>
+      </c>
+      <c r="N13">
+        <v>0.412548</v>
+      </c>
+      <c r="O13">
+        <v>0.001761282092183924</v>
+      </c>
+      <c r="P13">
+        <v>0.001761282092183924</v>
+      </c>
+      <c r="Q13">
+        <v>0.004836987784</v>
+      </c>
+      <c r="R13">
+        <v>0.04353289005600001</v>
+      </c>
+      <c r="S13">
+        <v>2.221174136387247E-07</v>
+      </c>
+      <c r="T13">
+        <v>2.221174136387247E-07</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.035174</v>
+      </c>
+      <c r="H14">
+        <v>0.105522</v>
+      </c>
+      <c r="I14">
+        <v>0.0001261112087748008</v>
+      </c>
+      <c r="J14">
+        <v>0.0001261112087748008</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>23.43656066666667</v>
+      </c>
+      <c r="N14">
+        <v>70.309682</v>
+      </c>
+      <c r="O14">
+        <v>0.3001715771588915</v>
+      </c>
+      <c r="P14">
+        <v>0.3001715771588914</v>
+      </c>
+      <c r="Q14">
+        <v>0.8243575848893334</v>
+      </c>
+      <c r="R14">
+        <v>7.419218264004</v>
+      </c>
+      <c r="S14">
+        <v>3.785500043534619E-05</v>
+      </c>
+      <c r="T14">
+        <v>3.785500043534617E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.035174</v>
+      </c>
+      <c r="H15">
+        <v>0.105522</v>
+      </c>
+      <c r="I15">
+        <v>0.0001261112087748008</v>
+      </c>
+      <c r="J15">
+        <v>0.0001261112087748008</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>53.66901333333334</v>
+      </c>
+      <c r="N15">
+        <v>161.00704</v>
+      </c>
+      <c r="O15">
+        <v>0.6873838105324489</v>
+      </c>
+      <c r="P15">
+        <v>0.6873838105324488</v>
+      </c>
+      <c r="Q15">
+        <v>1.887753874986667</v>
+      </c>
+      <c r="R15">
+        <v>16.98978487488</v>
+      </c>
+      <c r="S15">
+        <v>8.668680323847578E-05</v>
+      </c>
+      <c r="T15">
+        <v>8.668680323847574E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.035174</v>
+      </c>
+      <c r="H16">
+        <v>0.105522</v>
+      </c>
+      <c r="I16">
+        <v>0.0001261112087748008</v>
+      </c>
+      <c r="J16">
+        <v>0.0001261112087748008</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.4302976666666667</v>
+      </c>
+      <c r="N16">
+        <v>1.290893</v>
+      </c>
+      <c r="O16">
+        <v>0.005511181059720522</v>
+      </c>
+      <c r="P16">
+        <v>0.005511181059720521</v>
+      </c>
+      <c r="Q16">
+        <v>0.01513529012733334</v>
+      </c>
+      <c r="R16">
+        <v>0.136217611146</v>
+      </c>
+      <c r="S16">
+        <v>6.950217052181426E-07</v>
+      </c>
+      <c r="T16">
+        <v>6.950217052181424E-07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.822191</v>
+      </c>
+      <c r="H17">
+        <v>8.466573</v>
+      </c>
+      <c r="I17">
+        <v>0.01011855115720031</v>
+      </c>
+      <c r="J17">
+        <v>0.01011855115720031</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.403827</v>
+      </c>
+      <c r="N17">
+        <v>1.211481</v>
+      </c>
+      <c r="O17">
+        <v>0.005172149156755268</v>
+      </c>
+      <c r="P17">
+        <v>0.005172149156755267</v>
+      </c>
+      <c r="Q17">
+        <v>1.139676924957</v>
+      </c>
+      <c r="R17">
+        <v>10.257092324613</v>
+      </c>
+      <c r="S17">
+        <v>5.233465583529863E-05</v>
+      </c>
+      <c r="T17">
+        <v>5.233465583529861E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.822191</v>
+      </c>
+      <c r="H18">
+        <v>8.466573</v>
+      </c>
+      <c r="I18">
+        <v>0.01011855115720031</v>
+      </c>
+      <c r="J18">
+        <v>0.01011855115720031</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.137516</v>
+      </c>
+      <c r="N18">
+        <v>0.412548</v>
+      </c>
+      <c r="O18">
+        <v>0.001761282092183924</v>
+      </c>
+      <c r="P18">
+        <v>0.001761282092183924</v>
+      </c>
+      <c r="Q18">
+        <v>0.388096417556</v>
+      </c>
+      <c r="R18">
+        <v>3.492867758004</v>
+      </c>
+      <c r="S18">
+        <v>1.782162295202383E-05</v>
+      </c>
+      <c r="T18">
+        <v>1.782162295202383E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.822191</v>
+      </c>
+      <c r="H19">
+        <v>8.466573</v>
+      </c>
+      <c r="I19">
+        <v>0.01011855115720031</v>
+      </c>
+      <c r="J19">
+        <v>0.01011855115720031</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>23.43656066666667</v>
+      </c>
+      <c r="N19">
+        <v>70.309682</v>
+      </c>
+      <c r="O19">
+        <v>0.3001715771588915</v>
+      </c>
+      <c r="P19">
+        <v>0.3001715771588914</v>
+      </c>
+      <c r="Q19">
+        <v>66.14245058442066</v>
+      </c>
+      <c r="R19">
+        <v>595.282055259786</v>
+      </c>
+      <c r="S19">
+        <v>0.003037301459419744</v>
+      </c>
+      <c r="T19">
+        <v>0.003037301459419743</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>2.79056486374348</v>
-      </c>
-      <c r="H13">
-        <v>2.79056486374348</v>
-      </c>
-      <c r="I13">
-        <v>0.01016987142407295</v>
-      </c>
-      <c r="J13">
-        <v>0.01016987142407295</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.422104904506321</v>
-      </c>
-      <c r="N13">
-        <v>0.422104904506321</v>
-      </c>
-      <c r="O13">
-        <v>0.005618624359339496</v>
-      </c>
-      <c r="P13">
-        <v>0.005618624359339496</v>
-      </c>
-      <c r="Q13">
-        <v>1.177911115329136</v>
-      </c>
-      <c r="R13">
-        <v>1.177911115329136</v>
-      </c>
-      <c r="S13">
-        <v>5.714068731464694E-05</v>
-      </c>
-      <c r="T13">
-        <v>5.714068731464694E-05</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.822191</v>
+      </c>
+      <c r="H20">
+        <v>8.466573</v>
+      </c>
+      <c r="I20">
+        <v>0.01011855115720031</v>
+      </c>
+      <c r="J20">
+        <v>0.01011855115720031</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>53.66901333333334</v>
+      </c>
+      <c r="N20">
+        <v>161.00704</v>
+      </c>
+      <c r="O20">
+        <v>0.6873838105324489</v>
+      </c>
+      <c r="P20">
+        <v>0.6873838105324488</v>
+      </c>
+      <c r="Q20">
+        <v>151.4642064082134</v>
+      </c>
+      <c r="R20">
+        <v>1363.17785767392</v>
+      </c>
+      <c r="S20">
+        <v>0.006955328251503871</v>
+      </c>
+      <c r="T20">
+        <v>0.006955328251503868</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.822191</v>
+      </c>
+      <c r="H21">
+        <v>8.466573</v>
+      </c>
+      <c r="I21">
+        <v>0.01011855115720031</v>
+      </c>
+      <c r="J21">
+        <v>0.01011855115720031</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.4302976666666667</v>
+      </c>
+      <c r="N21">
+        <v>1.290893</v>
+      </c>
+      <c r="O21">
+        <v>0.005511181059720522</v>
+      </c>
+      <c r="P21">
+        <v>0.005511181059720521</v>
+      </c>
+      <c r="Q21">
+        <v>1.214382202187667</v>
+      </c>
+      <c r="R21">
+        <v>10.929439819689</v>
+      </c>
+      <c r="S21">
+        <v>5.576516748937553E-05</v>
+      </c>
+      <c r="T21">
+        <v>5.576516748937551E-05</v>
       </c>
     </row>
   </sheetData>
